--- a/medicine/Pharmacie/Macitentan/Macitentan.xlsx
+++ b/medicine/Pharmacie/Macitentan/Macitentan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le macitentan est un inhibiteur des récepteurs de l'endothéline utilisée comme traitement de l'hypertension artérielle pulmonaire.
-Il s'agit d'une modification du bosentan, autre médicament de la même classe[1].
+Il s'agit d'une modification du bosentan, autre médicament de la même classe.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le macitentan a une affinité réversible pour le récepteur à l'endothéline mais se dissocie de ce dernier de manière plus retardée qu'avec le bosentan et l'ambrisentan[2]. 
-La molécule a un métabolite, lui-même actif sur le récepteur de l'endothéline[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le macitentan a une affinité réversible pour le récepteur à l'endothéline mais se dissocie de ce dernier de manière plus retardée qu'avec le bosentan et l'ambrisentan. 
+La molécule a un métabolite, lui-même actif sur le récepteur de l'endothéline. 
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il diminue la morbidité et la mortalité des patients porteurs d'une hypertension artérielle pulmonaire non traité par un inhibiteur de l'endothéline[4].
-En 2013, l'Agence européenne des médicaments recommande son autorisation de mise sur le marché pour cette indication[5].
-Il a un effet synergique avec le tadalafil sur les paramètres hémodynamiques[6].
-Il s'avère être cependant décevant en cas de syndrome d'Eisenmenger[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il diminue la morbidité et la mortalité des patients porteurs d'une hypertension artérielle pulmonaire non traité par un inhibiteur de l'endothéline.
+En 2013, l'Agence européenne des médicaments recommande son autorisation de mise sur le marché pour cette indication.
+Il a un effet synergique avec le tadalafil sur les paramètres hémodynamiques.
+Il s'avère être cependant décevant en cas de syndrome d'Eisenmenger.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus courants sont les céphalées, les pharyngites et les anémies[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus courants sont les céphalées, les pharyngites et les anémies.
 </t>
         </is>
       </c>
